--- a/Lab7/Сводная таблица.xlsx
+++ b/Lab7/Сводная таблица.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>rec_type</t>
   </si>
@@ -32,12 +32,33 @@
   </si>
   <si>
     <t>straight_recognition</t>
+  </si>
+  <si>
+    <t>wer</t>
+  </si>
+  <si>
+    <t>0.954</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>ds2</t>
+  </si>
+  <si>
+    <t>1.190</t>
+  </si>
+  <si>
+    <t>augmented_recognition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -67,8 +88,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -373,41 +400,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lab7/Сводная таблица.xlsx
+++ b/Lab7/Сводная таблица.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
   <si>
     <t>rec_type</t>
   </si>
@@ -37,19 +37,19 @@
     <t>wer</t>
   </si>
   <si>
-    <t>0.954</t>
-  </si>
-  <si>
     <t>val</t>
   </si>
   <si>
     <t>ds2</t>
   </si>
   <si>
-    <t>1.190</t>
-  </si>
-  <si>
     <t>augmented_recognition</t>
+  </si>
+  <si>
+    <t>with_post_recognition</t>
+  </si>
+  <si>
+    <t>classic teseract</t>
   </si>
 </sst>
 </file>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,127 +412,241 @@
     <col min="2" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">

--- a/Lab7/Сводная таблица.xlsx
+++ b/Lab7/Сводная таблица.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="14">
   <si>
     <t>rec_type</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>classic teseract</t>
+  </si>
+  <si>
+    <t>classic easyOCR</t>
+  </si>
+  <si>
+    <t>easyOCR</t>
   </si>
 </sst>
 </file>
@@ -403,7 +409,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,63 +644,121 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.63600000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.36299999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">

--- a/Lab7/Сводная таблица.xlsx
+++ b/Lab7/Сводная таблица.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="16">
   <si>
     <t>rec_type</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>easyOCR</t>
+  </si>
+  <si>
+    <t>custom easyOCR</t>
+  </si>
+  <si>
+    <t>customEasyOCR</t>
   </si>
 </sst>
 </file>
@@ -409,7 +415,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,22 +726,80 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="2"/>
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="2"/>
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="2"/>
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="2"/>
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.98299999999999998</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
